--- a/biology/Zoologie/Babycurus_buettneri/Babycurus_buettneri.xlsx
+++ b/biology/Zoologie/Babycurus_buettneri/Babycurus_buettneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Babycurus buettneri est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Gabon, en Guinée équatoriale, au Cameroun et au Congo-Brazzaville[1] et en Côte d'Ivoire[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Gabon, en Guinée équatoriale, au Cameroun et au Congo-Brazzaville et en Côte d'Ivoire.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Babycurus buettneri mesure de 55 à 68 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Babycurus buettneri mesure de 55 à 68 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (16/09/2020)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (16/09/2020) :
 Babycurus buettneri buettneri Karsch, 1886
 Babycurus buettneri savanicola Lourenço, Bruehmueller Ramos &amp; Cloudsley-Thompson, 2005 de Côte d'Ivoire</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Richard Büttner[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Richard Büttner.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Karsch, 1886 : « Skorpionologische Beiträge. I. Ueber einen sizilianischen Skorpion. II. Uebersicht der Gruppe Buthina (Androctonina). III. Ueber einen neuen Opisthacanthus (Peters). » Berliner entomologische Zeitschrift, vol. 30, no 1, p. 75–79 (texte intégral).
 Lourenço, Bruehmueller Ramos &amp; Cloudsley-Thompson, 2005 : « Further notes on the scorpions inhabiting the savannas of the Lamto Ecological Station in Côte d'Ivoire. » Entomologische Mitteilungen aus dem Zoologischen Museum Hamburg, vol. 14, no 172, p. 253–263 (texte intégral).</t>
